--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>878.6181981706219</v>
+        <v>455.8781981698168</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5269999504089355</v>
+        <v>0.4049999713897705</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.87819816981671</v>
+        <v>45.8781981698167</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>578.8300000008051</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>253.91</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.33845519167734</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.76239749718575</v>
+        <v>9.237602502814244</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.848402773227209</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000213</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>135.4840000000008</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>118.5430000000004</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>48.11199999999963</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.2949999999997</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>135.4840000000008</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8560000000796</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>118.5430000000004</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35.48400000000083</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.856000000079305</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>18.54300000000038</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="4">
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.433</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1318,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
